--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.68961506484348</v>
+        <v>0.8370283333333334</v>
       </c>
       <c r="H2">
-        <v>0.68961506484348</v>
+        <v>2.511085</v>
       </c>
       <c r="I2">
-        <v>0.008752463356629096</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="J2">
-        <v>0.008752463356629096</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32156707314563</v>
+        <v>2.292844666666667</v>
       </c>
       <c r="N2">
-        <v>1.32156707314563</v>
+        <v>6.878534</v>
       </c>
       <c r="O2">
-        <v>0.3664836765359651</v>
+        <v>0.4949693416994264</v>
       </c>
       <c r="P2">
-        <v>0.3664836765359651</v>
+        <v>0.4949693416994265</v>
       </c>
       <c r="Q2">
-        <v>0.9113725628423317</v>
+        <v>1.919175949932223</v>
       </c>
       <c r="R2">
-        <v>0.9113725628423317</v>
+        <v>17.27258354939</v>
       </c>
       <c r="S2">
-        <v>0.003207634949683745</v>
+        <v>0.005206277801885485</v>
       </c>
       <c r="T2">
-        <v>0.003207634949683745</v>
+        <v>0.005206277801885486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.68961506484348</v>
+        <v>0.8370283333333334</v>
       </c>
       <c r="H3">
-        <v>0.68961506484348</v>
+        <v>2.511085</v>
       </c>
       <c r="I3">
-        <v>0.008752463356629096</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="J3">
-        <v>0.008752463356629096</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43781467707366</v>
+        <v>1.481271666666667</v>
       </c>
       <c r="N3">
-        <v>1.43781467707366</v>
+        <v>4.443815</v>
       </c>
       <c r="O3">
-        <v>0.3987202917950277</v>
+        <v>0.3197704896398035</v>
       </c>
       <c r="P3">
-        <v>0.3987202917950277</v>
+        <v>0.3197704896398036</v>
       </c>
       <c r="Q3">
-        <v>0.9915386617630593</v>
+        <v>1.239866354363889</v>
       </c>
       <c r="R3">
-        <v>0.9915386617630593</v>
+        <v>11.158797189275</v>
       </c>
       <c r="S3">
-        <v>0.003489784743480441</v>
+        <v>0.003363468929598334</v>
       </c>
       <c r="T3">
-        <v>0.003489784743480441</v>
+        <v>0.003363468929598334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.68961506484348</v>
+        <v>0.8370283333333334</v>
       </c>
       <c r="H4">
-        <v>0.68961506484348</v>
+        <v>2.511085</v>
       </c>
       <c r="I4">
-        <v>0.008752463356629096</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="J4">
-        <v>0.008752463356629096</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.846691747070397</v>
+        <v>0.8581799999999999</v>
       </c>
       <c r="N4">
-        <v>0.846691747070397</v>
+        <v>2.57454</v>
       </c>
       <c r="O4">
-        <v>0.2347960316690073</v>
+        <v>0.18526016866077</v>
       </c>
       <c r="P4">
-        <v>0.2347960316690073</v>
+        <v>0.1852601686607701</v>
       </c>
       <c r="Q4">
-        <v>0.5838913840583911</v>
+        <v>0.7183209751</v>
       </c>
       <c r="R4">
-        <v>0.5838913840583911</v>
+        <v>6.4648887759</v>
       </c>
       <c r="S4">
-        <v>0.002055043663464911</v>
+        <v>0.001948637667861532</v>
       </c>
       <c r="T4">
-        <v>0.002055043663464911</v>
+        <v>0.001948637667861532</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.6635738621019</v>
+        <v>34.839961</v>
       </c>
       <c r="H5">
-        <v>34.6635738621019</v>
+        <v>104.519883</v>
       </c>
       <c r="I5">
-        <v>0.4399434923984918</v>
+        <v>0.437810869312907</v>
       </c>
       <c r="J5">
-        <v>0.4399434923984918</v>
+        <v>0.4378108693129071</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.32156707314563</v>
+        <v>2.292844666666667</v>
       </c>
       <c r="N5">
-        <v>1.32156707314563</v>
+        <v>6.878534</v>
       </c>
       <c r="O5">
-        <v>0.3664836765359651</v>
+        <v>0.4949693416994264</v>
       </c>
       <c r="P5">
-        <v>0.3664836765359651</v>
+        <v>0.4949693416994265</v>
       </c>
       <c r="Q5">
-        <v>45.81023785370537</v>
+        <v>79.88261876572466</v>
       </c>
       <c r="R5">
-        <v>45.81023785370537</v>
+        <v>718.943568891522</v>
       </c>
       <c r="S5">
-        <v>0.1612321085622717</v>
+        <v>0.2167029577726632</v>
       </c>
       <c r="T5">
-        <v>0.1612321085622717</v>
+        <v>0.2167029577726632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.6635738621019</v>
+        <v>34.839961</v>
       </c>
       <c r="H6">
-        <v>34.6635738621019</v>
+        <v>104.519883</v>
       </c>
       <c r="I6">
-        <v>0.4399434923984918</v>
+        <v>0.437810869312907</v>
       </c>
       <c r="J6">
-        <v>0.4399434923984918</v>
+        <v>0.4378108693129071</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.43781467707366</v>
+        <v>1.481271666666667</v>
       </c>
       <c r="N6">
-        <v>1.43781467707366</v>
+        <v>4.443815</v>
       </c>
       <c r="O6">
-        <v>0.3987202917950277</v>
+        <v>0.3197704896398035</v>
       </c>
       <c r="P6">
-        <v>0.3987202917950277</v>
+        <v>0.3197704896398036</v>
       </c>
       <c r="Q6">
-        <v>49.839795258757</v>
+        <v>51.60744709707166</v>
       </c>
       <c r="R6">
-        <v>49.839795258757</v>
+        <v>464.467023873645</v>
       </c>
       <c r="S6">
-        <v>0.1754143976624502</v>
+        <v>0.1399989960498163</v>
       </c>
       <c r="T6">
-        <v>0.1754143976624502</v>
+        <v>0.1399989960498164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.6635738621019</v>
+        <v>34.839961</v>
       </c>
       <c r="H7">
-        <v>34.6635738621019</v>
+        <v>104.519883</v>
       </c>
       <c r="I7">
-        <v>0.4399434923984918</v>
+        <v>0.437810869312907</v>
       </c>
       <c r="J7">
-        <v>0.4399434923984918</v>
+        <v>0.4378108693129071</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.846691747070397</v>
+        <v>0.8581799999999999</v>
       </c>
       <c r="N7">
-        <v>0.846691747070397</v>
+        <v>2.57454</v>
       </c>
       <c r="O7">
-        <v>0.2347960316690073</v>
+        <v>0.18526016866077</v>
       </c>
       <c r="P7">
-        <v>0.2347960316690073</v>
+        <v>0.1852601686607701</v>
       </c>
       <c r="Q7">
-        <v>29.3493619130068</v>
+        <v>29.89895773097999</v>
       </c>
       <c r="R7">
-        <v>29.3493619130068</v>
+        <v>269.0906195788199</v>
       </c>
       <c r="S7">
-        <v>0.1032969861737699</v>
+        <v>0.08110891549042749</v>
       </c>
       <c r="T7">
-        <v>0.1032969861737699</v>
+        <v>0.08110891549042752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.4377795974949</v>
+        <v>43.90066266666667</v>
       </c>
       <c r="H8">
-        <v>43.4377795974949</v>
+        <v>131.701988</v>
       </c>
       <c r="I8">
-        <v>0.5513040442448791</v>
+        <v>0.5516707462877476</v>
       </c>
       <c r="J8">
-        <v>0.5513040442448791</v>
+        <v>0.5516707462877476</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.32156707314563</v>
+        <v>2.292844666666667</v>
       </c>
       <c r="N8">
-        <v>1.32156707314563</v>
+        <v>6.878534</v>
       </c>
       <c r="O8">
-        <v>0.3664836765359651</v>
+        <v>0.4949693416994264</v>
       </c>
       <c r="P8">
-        <v>0.3664836765359651</v>
+        <v>0.4949693416994265</v>
       </c>
       <c r="Q8">
-        <v>57.40593924660629</v>
+        <v>100.6574002583991</v>
       </c>
       <c r="R8">
-        <v>57.40593924660629</v>
+        <v>905.9166023255921</v>
       </c>
       <c r="S8">
-        <v>0.2020439330240097</v>
+        <v>0.2730601061248777</v>
       </c>
       <c r="T8">
-        <v>0.2020439330240097</v>
+        <v>0.2730601061248777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.4377795974949</v>
+        <v>43.90066266666667</v>
       </c>
       <c r="H9">
-        <v>43.4377795974949</v>
+        <v>131.701988</v>
       </c>
       <c r="I9">
-        <v>0.5513040442448791</v>
+        <v>0.5516707462877476</v>
       </c>
       <c r="J9">
-        <v>0.5513040442448791</v>
+        <v>0.5516707462877476</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43781467707366</v>
+        <v>1.481271666666667</v>
       </c>
       <c r="N9">
-        <v>1.43781467707366</v>
+        <v>4.443815</v>
       </c>
       <c r="O9">
-        <v>0.3987202917950277</v>
+        <v>0.3197704896398035</v>
       </c>
       <c r="P9">
-        <v>0.3987202917950277</v>
+        <v>0.3197704896398036</v>
       </c>
       <c r="Q9">
-        <v>62.45547704476895</v>
+        <v>65.02880775602445</v>
       </c>
       <c r="R9">
-        <v>62.45547704476895</v>
+        <v>585.25926980422</v>
       </c>
       <c r="S9">
-        <v>0.2198161093890971</v>
+        <v>0.1764080246603889</v>
       </c>
       <c r="T9">
-        <v>0.2198161093890971</v>
+        <v>0.1764080246603889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.4377795974949</v>
+        <v>43.90066266666667</v>
       </c>
       <c r="H10">
-        <v>43.4377795974949</v>
+        <v>131.701988</v>
       </c>
       <c r="I10">
-        <v>0.5513040442448791</v>
+        <v>0.5516707462877476</v>
       </c>
       <c r="J10">
-        <v>0.5513040442448791</v>
+        <v>0.5516707462877476</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.846691747070397</v>
+        <v>0.8581799999999999</v>
       </c>
       <c r="N10">
-        <v>0.846691747070397</v>
+        <v>2.57454</v>
       </c>
       <c r="O10">
-        <v>0.2347960316690073</v>
+        <v>0.18526016866077</v>
       </c>
       <c r="P10">
-        <v>0.2347960316690073</v>
+        <v>0.1852601686607701</v>
       </c>
       <c r="Q10">
-        <v>36.7784094962618</v>
+        <v>37.67467068728</v>
       </c>
       <c r="R10">
-        <v>36.7784094962618</v>
+        <v>339.07203618552</v>
       </c>
       <c r="S10">
-        <v>0.1294440018317724</v>
+        <v>0.102202615502481</v>
       </c>
       <c r="T10">
-        <v>0.1294440018317724</v>
+        <v>0.102202615502481</v>
       </c>
     </row>
   </sheetData>
